--- a/data/trans_orig/P38A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776F46C7-91B1-4C52-866D-D61854BAB434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{777E495D-9513-4F9F-92F5-61651C08A0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCE91175-7F72-4E41-B57E-E451B8649DCE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5130B9B5-60BF-452D-9BB4-94BCBF756DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="379">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>54,92%</t>
   </si>
   <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
   </si>
   <si>
     <t>64,48%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>45,08%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>35,52%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>81,45%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>15,76%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,16 +196,16 @@
     <t>86,32%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>91,6%</t>
+    <t>91,7%</t>
   </si>
   <si>
     <t>95,41%</t>
@@ -214,19 +214,16 @@
     <t>90,09%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>88,24%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
   </si>
   <si>
     <t>6,3%</t>
@@ -235,16 +232,13 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>8,3%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>11,76%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -253,55 +247,55 @@
     <t>92,92%</t>
   </si>
   <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>92,11%</t>
   </si>
   <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -310,775 +304,757 @@
     <t>95,08%</t>
   </si>
   <si>
-    <t>92,25%</t>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
   </si>
   <si>
     <t>89,07%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>15,62%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>83,01%</t>
   </si>
   <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>63,02%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>91,41%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>36,98%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>8,59%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>92,1%</t>
+    <t>92,19%</t>
   </si>
   <si>
     <t>94,92%</t>
@@ -1087,19 +1063,19 @@
     <t>7,52%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>6,32%</t>
@@ -1108,31 +1084,28 @@
     <t>5,08%</t>
   </si>
   <si>
-    <t>7,9%</t>
+    <t>7,81%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>96,11%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>96,52%</t>
+    <t>96,44%</t>
   </si>
   <si>
     <t>98,02%</t>
@@ -1141,19 +1114,16 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>2,68%</t>
@@ -1162,61 +1132,49 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>3,48%</t>
+    <t>3,56%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607A0030-81E9-4474-9E9A-692FC1A7DCF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F89032-8018-46F5-8E95-04042DF81031}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1904,7 +1862,7 @@
         <v>542</v>
       </c>
       <c r="D7" s="7">
-        <v>557129</v>
+        <v>557128</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1934,7 +1892,7 @@
         <v>1040</v>
       </c>
       <c r="N7" s="7">
-        <v>1089545</v>
+        <v>1089546</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2006,7 +1964,7 @@
         <v>664</v>
       </c>
       <c r="D9" s="7">
-        <v>683997</v>
+        <v>683996</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2036,7 +1994,7 @@
         <v>1234</v>
       </c>
       <c r="N9" s="7">
-        <v>1293359</v>
+        <v>1293360</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2056,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2071,13 @@
         <v>92902</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -2128,13 +2086,13 @@
         <v>44798</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -2143,13 +2101,13 @@
         <v>137700</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,7 +2163,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2217,13 +2175,13 @@
         <v>570175</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>491</v>
@@ -2232,13 +2190,13 @@
         <v>559833</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>998</v>
@@ -2247,13 +2205,13 @@
         <v>1130009</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,13 +2226,13 @@
         <v>43412</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -2283,13 +2241,13 @@
         <v>53366</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -2298,13 +2256,13 @@
         <v>96777</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,7 +2318,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2372,13 +2330,13 @@
         <v>403060</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>383</v>
@@ -2387,13 +2345,13 @@
         <v>423630</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>754</v>
@@ -2402,13 +2360,13 @@
         <v>826690</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,13 +2381,13 @@
         <v>20841</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2438,13 +2396,13 @@
         <v>21213</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2453,13 +2411,13 @@
         <v>42054</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,7 +2473,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2527,13 +2485,13 @@
         <v>540498</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>675</v>
@@ -2542,13 +2500,13 @@
         <v>721590</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1161</v>
@@ -2557,13 +2515,13 @@
         <v>1262087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2536,13 @@
         <v>13946</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -2593,13 +2551,13 @@
         <v>18572</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -2608,13 +2566,13 @@
         <v>32519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2640,13 @@
         <v>2903265</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>2938</v>
@@ -2697,28 +2655,28 @@
         <v>3178406</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>5645</v>
       </c>
       <c r="N22" s="7">
-        <v>6081670</v>
+        <v>6081671</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2691,13 @@
         <v>500113</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>348</v>
@@ -2748,13 +2706,13 @@
         <v>366329</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>827</v>
@@ -2763,13 +2721,13 @@
         <v>866442</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,7 +2769,7 @@
         <v>6472</v>
       </c>
       <c r="N24" s="7">
-        <v>6948112</v>
+        <v>6948113</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2783,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC5A534-0FDC-468C-8581-83AF7633E4A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB8F6D7-C6E9-4594-B1A2-C290A47290DE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2864,7 +2822,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2971,13 +2929,13 @@
         <v>233066</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>271</v>
@@ -2986,13 +2944,13 @@
         <v>266586</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>491</v>
@@ -3001,13 +2959,13 @@
         <v>499651</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +2980,13 @@
         <v>175118</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3037,13 +2995,13 @@
         <v>127224</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
@@ -3052,13 +3010,13 @@
         <v>302342</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3084,13 @@
         <v>443291</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>502</v>
@@ -3141,13 +3099,13 @@
         <v>489033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>930</v>
@@ -3156,13 +3114,13 @@
         <v>932324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3135,13 @@
         <v>145170</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -3192,13 +3150,13 @@
         <v>73530</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>213</v>
@@ -3207,13 +3165,13 @@
         <v>218700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3239,13 @@
         <v>544848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>587</v>
@@ -3296,13 +3254,13 @@
         <v>585492</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>1106</v>
@@ -3311,13 +3269,13 @@
         <v>1130341</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3290,13 @@
         <v>117695</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -3347,13 +3305,13 @@
         <v>72238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>188</v>
@@ -3362,13 +3320,13 @@
         <v>189933</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,7 +3382,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3436,13 +3394,13 @@
         <v>571623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>557</v>
@@ -3451,13 +3409,13 @@
         <v>600007</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>1074</v>
@@ -3466,13 +3424,13 @@
         <v>1171630</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3445,13 @@
         <v>71540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -3502,13 +3460,13 @@
         <v>48044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -3517,13 +3475,13 @@
         <v>119584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,7 +3537,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3591,13 +3549,13 @@
         <v>446050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>408</v>
@@ -3606,13 +3564,13 @@
         <v>468265</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>804</v>
@@ -3621,13 +3579,13 @@
         <v>914314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3600,13 @@
         <v>30819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3657,13 +3615,13 @@
         <v>26296</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -3672,13 +3630,13 @@
         <v>57115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3692,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3746,13 +3704,13 @@
         <v>577424</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>645</v>
@@ -3761,13 +3719,13 @@
         <v>765800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>1257</v>
@@ -3776,13 +3734,13 @@
         <v>1343223</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3755,13 @@
         <v>13068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3812,13 +3770,13 @@
         <v>12131</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -3827,13 +3785,13 @@
         <v>25199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3859,13 @@
         <v>2816300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>2970</v>
@@ -3916,13 +3874,13 @@
         <v>3175183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>5662</v>
@@ -3931,13 +3889,13 @@
         <v>5991483</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3910,13 @@
         <v>553411</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -3967,28 +3925,28 @@
         <v>359463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>877</v>
       </c>
       <c r="N23" s="7">
-        <v>912874</v>
+        <v>912873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,7 +3988,7 @@
         <v>6539</v>
       </c>
       <c r="N24" s="7">
-        <v>6904357</v>
+        <v>6904356</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4044,7 +4002,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4066,7 +4024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE332ED1-865D-4657-A819-7D5AE7F9AD39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35ABD78-4F60-4C3C-9587-7BB8D27B613C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4083,7 +4041,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4190,13 +4148,13 @@
         <v>182905</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>133</v>
@@ -4205,13 +4163,13 @@
         <v>221015</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -4220,13 +4178,13 @@
         <v>403920</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4199,13 @@
         <v>194774</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>74</v>
@@ -4256,13 +4214,13 @@
         <v>133942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
@@ -4271,13 +4229,13 @@
         <v>328716</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4303,13 @@
         <v>305549</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>365</v>
@@ -4360,13 +4318,13 @@
         <v>380957</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>581</v>
@@ -4375,13 +4333,13 @@
         <v>686506</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4354,13 @@
         <v>122847</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -4411,13 +4369,13 @@
         <v>117620</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>181</v>
@@ -4426,13 +4384,13 @@
         <v>240467</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4458,13 @@
         <v>452286</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>742</v>
@@ -4515,13 +4473,13 @@
         <v>506041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>1178</v>
@@ -4530,13 +4488,13 @@
         <v>958326</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4509,13 @@
         <v>104966</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>104</v>
@@ -4566,13 +4524,13 @@
         <v>77435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>214</v>
@@ -4581,13 +4539,13 @@
         <v>182401</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,7 +4601,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4655,13 +4613,13 @@
         <v>600970</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>1062</v>
@@ -4670,13 +4628,13 @@
         <v>695574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>1660</v>
@@ -4685,13 +4643,13 @@
         <v>1296544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4664,13 @@
         <v>123020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -4721,13 +4679,13 @@
         <v>51280</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
@@ -4736,13 +4694,13 @@
         <v>174300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,7 +4756,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4810,13 +4768,13 @@
         <v>555016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>957</v>
@@ -4825,13 +4783,13 @@
         <v>566595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>1571</v>
@@ -4840,13 +4798,13 @@
         <v>1121611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4819,13 @@
         <v>45141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4876,13 +4834,13 @@
         <v>30468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -4891,13 +4849,13 @@
         <v>75609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,7 +4911,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4962,16 +4920,16 @@
         <v>1003</v>
       </c>
       <c r="D19" s="7">
-        <v>679244</v>
+        <v>679245</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>1667</v>
@@ -4980,13 +4938,13 @@
         <v>998864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="M19" s="7">
         <v>2670</v>
@@ -4995,13 +4953,13 @@
         <v>1678109</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4974,13 @@
         <v>18510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5031,13 +4989,13 @@
         <v>27773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -5046,13 +5004,13 @@
         <v>46283</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,7 +5022,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5120,13 +5078,13 @@
         <v>2775971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>4926</v>
@@ -5135,13 +5093,13 @@
         <v>3369045</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>7876</v>
@@ -5150,13 +5108,13 @@
         <v>6145016</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5129,13 @@
         <v>609257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>311</v>
       </c>
       <c r="H23" s="7">
         <v>437</v>
@@ -5186,13 +5144,13 @@
         <v>438519</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>863</v>
@@ -5201,13 +5159,13 @@
         <v>1047776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,7 +5221,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{777E495D-9513-4F9F-92F5-61651C08A0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D42ACA-C911-4698-A17A-7F5FA8E4C783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5130B9B5-60BF-452D-9BB4-94BCBF756DBD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24794ED0-78DD-4973-B178-87FB6C7792FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>54,92%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
   </si>
   <si>
     <t>64,48%</t>
   </si>
   <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>45,08%</t>
   </si>
   <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
   </si>
   <si>
     <t>35,52%</t>
   </si>
   <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,1024 +139,1048 @@
     <t>81,45%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
     <t>84,11%</t>
   </si>
   <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>15,89%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
   </si>
   <si>
     <t>11,52%</t>
@@ -1586,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F89032-8018-46F5-8E95-04042DF81031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA4EA87-1200-4674-9741-C100D86169D9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1892,16 +1916,16 @@
         <v>1040</v>
       </c>
       <c r="N7" s="7">
-        <v>1089546</v>
+        <v>1089545</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1940,13 @@
         <v>126868</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -1931,13 +1955,13 @@
         <v>76946</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>194</v>
@@ -1946,13 +1970,13 @@
         <v>203814</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,7 +2018,7 @@
         <v>1234</v>
       </c>
       <c r="N9" s="7">
-        <v>1293360</v>
+        <v>1293359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2008,7 +2032,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2020,13 +2044,13 @@
         <v>586172</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>624</v>
@@ -2035,13 +2059,13 @@
         <v>666052</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1184</v>
@@ -2050,13 +2074,13 @@
         <v>1252223</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2095,13 @@
         <v>92902</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -2086,13 +2110,13 @@
         <v>44798</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -2101,10 +2125,10 @@
         <v>137700</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -2202,7 +2226,7 @@
         <v>998</v>
       </c>
       <c r="N13" s="7">
-        <v>1130009</v>
+        <v>1130008</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -2304,7 +2328,7 @@
         <v>1084</v>
       </c>
       <c r="N15" s="7">
-        <v>1226786</v>
+        <v>1226785</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2667,7 +2691,7 @@
         <v>5645</v>
       </c>
       <c r="N22" s="7">
-        <v>6081671</v>
+        <v>6081670</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>128</v>
@@ -2769,7 +2793,7 @@
         <v>6472</v>
       </c>
       <c r="N24" s="7">
-        <v>6948113</v>
+        <v>6948112</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2805,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB8F6D7-C6E9-4594-B1A2-C290A47290DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE41A1D-EB65-4A6B-8432-543C9715D5D4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3102,10 +3126,10 @@
         <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>930</v>
@@ -3114,13 +3138,13 @@
         <v>932324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3159,13 @@
         <v>145170</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -3150,13 +3174,13 @@
         <v>73530</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>213</v>
@@ -3165,13 +3189,13 @@
         <v>218700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,7 +3251,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3239,13 +3263,13 @@
         <v>544848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>587</v>
@@ -3254,13 +3278,13 @@
         <v>585492</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>1106</v>
@@ -3269,13 +3293,13 @@
         <v>1130341</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3314,13 @@
         <v>117695</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -3305,13 +3329,13 @@
         <v>72238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>188</v>
@@ -3320,13 +3344,13 @@
         <v>189933</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3418,13 @@
         <v>571623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>557</v>
@@ -3409,13 +3433,13 @@
         <v>600007</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>1074</v>
@@ -3424,13 +3448,13 @@
         <v>1171630</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3469,13 @@
         <v>71540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -3460,13 +3484,13 @@
         <v>48044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -3475,13 +3499,13 @@
         <v>119584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3573,13 @@
         <v>446050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>408</v>
@@ -3564,13 +3588,13 @@
         <v>468265</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>804</v>
@@ -3579,13 +3603,13 @@
         <v>914314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3624,13 @@
         <v>30819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3615,13 +3639,13 @@
         <v>26296</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -3630,13 +3654,13 @@
         <v>57115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3728,13 @@
         <v>577424</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>645</v>
@@ -3719,13 +3743,13 @@
         <v>765800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>1257</v>
@@ -3734,13 +3758,13 @@
         <v>1343223</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3779,13 @@
         <v>13068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3770,7 +3794,7 @@
         <v>12131</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>241</v>
@@ -4024,7 +4048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35ABD78-4F60-4C3C-9587-7BB8D27B613C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E8471C-9478-4D3B-976B-0E29158AF06B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4446,7 +4470,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4473,13 +4497,13 @@
         <v>506041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>1178</v>
@@ -4488,13 +4512,13 @@
         <v>958326</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4533,13 @@
         <v>104966</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>104</v>
@@ -4524,13 +4548,13 @@
         <v>77435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>214</v>
@@ -4539,13 +4563,13 @@
         <v>182401</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4637,13 @@
         <v>600970</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>1062</v>
@@ -4628,13 +4652,13 @@
         <v>695574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>1660</v>
@@ -4643,13 +4667,13 @@
         <v>1296544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4688,13 @@
         <v>123020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -4679,13 +4703,13 @@
         <v>51280</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
@@ -4694,13 +4718,13 @@
         <v>174300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4792,13 @@
         <v>555016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>957</v>
@@ -4783,13 +4807,13 @@
         <v>566595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>1571</v>
@@ -4798,13 +4822,13 @@
         <v>1121611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4843,13 @@
         <v>45141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4834,13 +4858,13 @@
         <v>30468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -4849,13 +4873,13 @@
         <v>75609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4947,13 @@
         <v>679245</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>1667</v>
@@ -4938,13 +4962,13 @@
         <v>998864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M19" s="7">
         <v>2670</v>
@@ -4953,13 +4977,13 @@
         <v>1678109</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4998,13 @@
         <v>18510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -4989,13 +5013,13 @@
         <v>27773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -5004,13 +5028,13 @@
         <v>46283</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5102,13 @@
         <v>2775971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>36</v>
+        <v>372</v>
       </c>
       <c r="H22" s="7">
         <v>4926</v>
@@ -5093,13 +5117,13 @@
         <v>3369045</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M22" s="7">
         <v>7876</v>
@@ -5108,13 +5132,13 @@
         <v>6145016</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5153,13 @@
         <v>609257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>380</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>437</v>
@@ -5144,13 +5168,13 @@
         <v>438519</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M23" s="7">
         <v>863</v>
@@ -5159,13 +5183,13 @@
         <v>1047776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D42ACA-C911-4698-A17A-7F5FA8E4C783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD067B0B-3682-4AF5-BED0-C721ED4FD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24794ED0-78DD-4973-B178-87FB6C7792FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3609420B-B880-4C34-9F58-B5CB98FFA77A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="393">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>54,92%</t>
   </si>
   <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
   </si>
   <si>
     <t>64,48%</t>
   </si>
   <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>45,08%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>35,52%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,49 +139,55 @@
     <t>81,45%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>10,07%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>15,76%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -190,10 +196,10 @@
     <t>86,32%</t>
   </si>
   <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>93,7%</t>
@@ -202,946 +208,952 @@
     <t>91,6%</t>
   </si>
   <si>
-    <t>95,43%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
     <t>88,3%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>96,41%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>2,68%</t>
@@ -1150,55 +1162,61 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>3,56%</t>
+    <t>3,48%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>84,11%</t>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,89%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA4EA87-1200-4674-9741-C100D86169D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BBB1F7-508E-402A-BEF1-61CE39B006BC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1886,7 +1904,7 @@
         <v>542</v>
       </c>
       <c r="D7" s="7">
-        <v>557128</v>
+        <v>557129</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1919,13 +1937,13 @@
         <v>1089545</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1958,13 @@
         <v>126868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -1955,13 +1973,13 @@
         <v>76946</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>194</v>
@@ -1970,13 +1988,13 @@
         <v>203814</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +2006,7 @@
         <v>664</v>
       </c>
       <c r="D9" s="7">
-        <v>683996</v>
+        <v>683997</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2050,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2062,13 @@
         <v>586172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>624</v>
@@ -2059,13 +2077,13 @@
         <v>666052</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1184</v>
@@ -2074,13 +2092,13 @@
         <v>1252223</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2113,13 @@
         <v>92902</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -2110,13 +2128,13 @@
         <v>44798</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -2125,13 +2143,13 @@
         <v>137700</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2205,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2217,13 @@
         <v>570175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>491</v>
@@ -2214,28 +2232,28 @@
         <v>559833</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>998</v>
       </c>
       <c r="N13" s="7">
-        <v>1130008</v>
+        <v>1130009</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2268,13 @@
         <v>43412</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -2265,13 +2283,13 @@
         <v>53366</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -2280,13 +2298,13 @@
         <v>96777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +2346,7 @@
         <v>1084</v>
       </c>
       <c r="N15" s="7">
-        <v>1226785</v>
+        <v>1226786</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2342,7 +2360,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2354,13 +2372,13 @@
         <v>403060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>383</v>
@@ -2369,13 +2387,13 @@
         <v>423630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>754</v>
@@ -2384,13 +2402,13 @@
         <v>826690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2423,13 @@
         <v>20841</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2420,13 +2438,13 @@
         <v>21213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2435,13 +2453,13 @@
         <v>42054</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2515,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2509,13 +2527,13 @@
         <v>540498</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>675</v>
@@ -2524,13 +2542,13 @@
         <v>721590</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1161</v>
@@ -2539,13 +2557,13 @@
         <v>1262087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2578,13 @@
         <v>13946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -2575,13 +2593,13 @@
         <v>18572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -2590,13 +2608,13 @@
         <v>32519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2682,13 @@
         <v>2903265</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>2938</v>
@@ -2679,13 +2697,13 @@
         <v>3178406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>5645</v>
@@ -2694,13 +2712,13 @@
         <v>6081670</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2733,13 @@
         <v>500113</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>348</v>
@@ -2730,13 +2748,13 @@
         <v>366329</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>827</v>
@@ -2745,13 +2763,13 @@
         <v>866442</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2825,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE41A1D-EB65-4A6B-8432-543C9715D5D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AA644E-56B0-4D5C-9A4C-C7CA9836E797}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2846,7 +2864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2953,13 +2971,13 @@
         <v>233066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>271</v>
@@ -2968,13 +2986,13 @@
         <v>266586</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>491</v>
@@ -2983,13 +3001,13 @@
         <v>499651</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3022,13 @@
         <v>175118</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3019,13 +3037,13 @@
         <v>127224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
@@ -3034,13 +3052,13 @@
         <v>302342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3126,13 @@
         <v>443291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>502</v>
@@ -3123,13 +3141,13 @@
         <v>489033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>930</v>
@@ -3138,13 +3156,13 @@
         <v>932324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3177,13 @@
         <v>145170</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -3174,13 +3192,13 @@
         <v>73530</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>213</v>
@@ -3189,13 +3207,13 @@
         <v>218700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3269,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3263,13 +3281,13 @@
         <v>544848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>587</v>
@@ -3278,13 +3296,13 @@
         <v>585492</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>1106</v>
@@ -3293,13 +3311,13 @@
         <v>1130341</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3332,13 @@
         <v>117695</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -3329,13 +3347,13 @@
         <v>72238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>188</v>
@@ -3344,13 +3362,13 @@
         <v>189933</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,7 +3424,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3418,13 +3436,13 @@
         <v>571623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>557</v>
@@ -3433,13 +3451,13 @@
         <v>600007</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>1074</v>
@@ -3448,13 +3466,13 @@
         <v>1171630</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3487,13 @@
         <v>71540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -3484,13 +3502,13 @@
         <v>48044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -3499,13 +3517,13 @@
         <v>119584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3579,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3573,13 +3591,13 @@
         <v>446050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>408</v>
@@ -3588,13 +3606,13 @@
         <v>468265</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>804</v>
@@ -3603,13 +3621,13 @@
         <v>914314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3642,13 @@
         <v>30819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3639,13 +3657,13 @@
         <v>26296</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -3654,13 +3672,13 @@
         <v>57115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3734,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3728,13 +3746,13 @@
         <v>577424</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>645</v>
@@ -3743,13 +3761,13 @@
         <v>765800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>1257</v>
@@ -3758,13 +3776,13 @@
         <v>1343223</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3797,13 @@
         <v>13068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3794,13 +3812,13 @@
         <v>12131</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -3809,13 +3827,13 @@
         <v>25199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3901,13 @@
         <v>2816300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>2970</v>
@@ -3898,13 +3916,13 @@
         <v>3175183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>5662</v>
@@ -3913,13 +3931,13 @@
         <v>5991483</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3952,13 @@
         <v>553411</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -3949,28 +3967,28 @@
         <v>359463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>877</v>
       </c>
       <c r="N23" s="7">
-        <v>912873</v>
+        <v>912874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,7 +4030,7 @@
         <v>6539</v>
       </c>
       <c r="N24" s="7">
-        <v>6904356</v>
+        <v>6904357</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4044,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +4066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E8471C-9478-4D3B-976B-0E29158AF06B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7771739C-3222-4053-9C12-9379CCC02F69}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4065,7 +4083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4172,13 +4190,13 @@
         <v>182905</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>133</v>
@@ -4187,13 +4205,13 @@
         <v>221015</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -4202,13 +4220,13 @@
         <v>403920</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4241,13 @@
         <v>194774</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>74</v>
@@ -4238,13 +4256,13 @@
         <v>133942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
@@ -4253,13 +4271,13 @@
         <v>328716</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4345,13 @@
         <v>305549</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>365</v>
@@ -4342,13 +4360,13 @@
         <v>380957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>581</v>
@@ -4357,13 +4375,13 @@
         <v>686506</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4396,13 @@
         <v>122847</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -4393,13 +4411,13 @@
         <v>117620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>181</v>
@@ -4408,13 +4426,13 @@
         <v>240467</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,7 +4488,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4482,13 +4500,13 @@
         <v>452286</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>742</v>
@@ -4497,13 +4515,13 @@
         <v>506041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>1178</v>
@@ -4512,13 +4530,13 @@
         <v>958326</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4551,13 @@
         <v>104966</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>104</v>
@@ -4548,13 +4566,13 @@
         <v>77435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>214</v>
@@ -4563,13 +4581,13 @@
         <v>182401</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,7 +4643,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4637,13 +4655,13 @@
         <v>600970</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>1062</v>
@@ -4652,13 +4670,13 @@
         <v>695574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>1660</v>
@@ -4667,13 +4685,13 @@
         <v>1296544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4706,13 @@
         <v>123020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -4703,13 +4721,13 @@
         <v>51280</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
@@ -4718,13 +4736,13 @@
         <v>174300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,7 +4798,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4792,13 +4810,13 @@
         <v>555016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>957</v>
@@ -4807,13 +4825,13 @@
         <v>566595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>1571</v>
@@ -4822,13 +4840,13 @@
         <v>1121611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4861,13 @@
         <v>45141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4858,13 +4876,13 @@
         <v>30468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -4873,13 +4891,13 @@
         <v>75609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4953,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4944,16 +4962,16 @@
         <v>1003</v>
       </c>
       <c r="D19" s="7">
-        <v>679245</v>
+        <v>679244</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>1667</v>
@@ -4962,13 +4980,13 @@
         <v>998864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>2670</v>
@@ -4977,13 +4995,13 @@
         <v>1678109</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5016,13 @@
         <v>18510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5013,13 +5031,13 @@
         <v>27773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -5028,13 +5046,13 @@
         <v>46283</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,7 +5064,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5102,13 +5120,13 @@
         <v>2775971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>4926</v>
@@ -5117,13 +5135,13 @@
         <v>3369045</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>7876</v>
@@ -5132,13 +5150,13 @@
         <v>6145016</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5171,13 @@
         <v>609257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>437</v>
@@ -5168,13 +5186,13 @@
         <v>438519</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>863</v>
@@ -5183,13 +5201,13 @@
         <v>1047776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5263,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD067B0B-3682-4AF5-BED0-C721ED4FD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B66AE6-77E5-4A41-A383-B167AFEE6424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3609420B-B880-4C34-9F58-B5CB98FFA77A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EC4B0979-7456-49D2-85F8-38992145744D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="442">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -133,7 +133,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>81,45%</t>
@@ -190,7 +190,7 @@
     <t>18,06%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>86,32%</t>
@@ -247,7 +247,7 @@
     <t>11,63%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>92,92%</t>
@@ -304,7 +304,7 @@
     <t>9,46%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>95,08%</t>
@@ -361,55 +361,118 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>85,31%</t>
@@ -736,58 +799,106 @@
     <t>7,56%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>83,58%</t>
@@ -847,376 +958,412 @@
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
 </sst>
 </file>
@@ -1628,8 +1775,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BBB1F7-508E-402A-BEF1-61CE39B006BC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAFE273-FE93-4006-ACFD-C0B4D8DAF199}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2244,7 +2391,7 @@
         <v>998</v>
       </c>
       <c r="N13" s="7">
-        <v>1130009</v>
+        <v>1130008</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2346,7 +2493,7 @@
         <v>1084</v>
       </c>
       <c r="N15" s="7">
-        <v>1226786</v>
+        <v>1226785</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2521,10 +2668,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>486</v>
+        <v>271</v>
       </c>
       <c r="D19" s="7">
-        <v>540498</v>
+        <v>298573</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2536,10 +2683,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>675</v>
+        <v>329</v>
       </c>
       <c r="I19" s="7">
-        <v>721590</v>
+        <v>337143</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2551,19 +2698,19 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1161</v>
+        <v>600</v>
       </c>
       <c r="N19" s="7">
-        <v>1262087</v>
+        <v>635715</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,49 +2719,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7188</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="7">
         <v>13</v>
       </c>
-      <c r="D20" s="7">
-        <v>13946</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>17</v>
-      </c>
       <c r="I20" s="7">
-        <v>18572</v>
+        <v>14040</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N20" s="7">
-        <v>32519</v>
+        <v>21228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>499</v>
+        <v>278</v>
       </c>
       <c r="D21" s="7">
-        <v>554444</v>
+        <v>305761</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2638,10 +2785,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>692</v>
+        <v>342</v>
       </c>
       <c r="I21" s="7">
-        <v>740162</v>
+        <v>351183</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2653,10 +2800,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1191</v>
+        <v>620</v>
       </c>
       <c r="N21" s="7">
-        <v>1294606</v>
+        <v>656943</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2670,55 +2817,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2707</v>
+        <v>215</v>
       </c>
       <c r="D22" s="7">
-        <v>2903265</v>
+        <v>241925</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2938</v>
+        <v>346</v>
       </c>
       <c r="I22" s="7">
-        <v>3178406</v>
+        <v>384446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>5645</v>
+        <v>561</v>
       </c>
       <c r="N22" s="7">
-        <v>6081670</v>
+        <v>626371</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,49 +2874,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>500113</v>
+        <v>6758</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>366329</v>
+        <v>4533</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>827</v>
+        <v>10</v>
       </c>
       <c r="N23" s="7">
-        <v>866442</v>
+        <v>11291</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,63 +2925,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248683</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637662</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2707</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2903265</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2938</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3178406</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5645</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6081671</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>479</v>
+      </c>
+      <c r="D26" s="7">
+        <v>500113</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>348</v>
+      </c>
+      <c r="I26" s="7">
+        <v>366329</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>827</v>
+      </c>
+      <c r="N26" s="7">
+        <v>866442</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3186</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3403378</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3286</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544735</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6472</v>
       </c>
-      <c r="N24" s="7">
-        <v>6948112</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6948113</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2847,8 +3150,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AA644E-56B0-4D5C-9A4C-C7CA9836E797}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BF4262-3466-422D-81F5-90CCEEFA553A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2864,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2971,13 +3274,13 @@
         <v>233066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>271</v>
@@ -2986,13 +3289,13 @@
         <v>266586</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>491</v>
@@ -3001,13 +3304,13 @@
         <v>499651</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3325,13 @@
         <v>175118</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3037,13 +3340,13 @@
         <v>127224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
@@ -3052,13 +3355,13 @@
         <v>302342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3429,13 @@
         <v>443291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>502</v>
@@ -3141,13 +3444,13 @@
         <v>489033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>930</v>
@@ -3156,13 +3459,13 @@
         <v>932324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3480,13 @@
         <v>145170</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -3192,13 +3495,13 @@
         <v>73530</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>213</v>
@@ -3207,13 +3510,13 @@
         <v>218700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3584,13 @@
         <v>544848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>587</v>
@@ -3296,13 +3599,13 @@
         <v>585492</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>1106</v>
@@ -3311,13 +3614,13 @@
         <v>1130341</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3635,13 @@
         <v>117695</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -3347,13 +3650,13 @@
         <v>72238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>188</v>
@@ -3362,13 +3665,13 @@
         <v>189933</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3739,13 @@
         <v>571623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>557</v>
@@ -3454,10 +3757,10 @@
         <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>1074</v>
@@ -3466,13 +3769,13 @@
         <v>1171630</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3790,13 @@
         <v>71540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -3505,10 +3808,10 @@
         <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -3517,13 +3820,13 @@
         <v>119584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3894,13 @@
         <v>446050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>408</v>
@@ -3606,13 +3909,13 @@
         <v>468265</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>804</v>
@@ -3621,13 +3924,13 @@
         <v>914314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3945,13 @@
         <v>30819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3657,13 +3960,13 @@
         <v>26296</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -3672,13 +3975,13 @@
         <v>57115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,49 +4043,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>612</v>
+        <v>317</v>
       </c>
       <c r="D19" s="7">
-        <v>577424</v>
+        <v>326268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>645</v>
+        <v>348</v>
       </c>
       <c r="I19" s="7">
-        <v>765800</v>
+        <v>371617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>1257</v>
+        <v>665</v>
       </c>
       <c r="N19" s="7">
-        <v>1343223</v>
+        <v>697885</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,49 +4094,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8062</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6145</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M20" s="7">
         <v>14</v>
       </c>
-      <c r="D20" s="7">
-        <v>13068</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>12131</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M20" s="7">
-        <v>24</v>
-      </c>
       <c r="N20" s="7">
-        <v>25199</v>
+        <v>14207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,10 +4145,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>626</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>590492</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3857,10 +4160,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3872,10 +4175,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1281</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1368422</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3889,55 +4192,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2692</v>
+        <v>295</v>
       </c>
       <c r="D22" s="7">
-        <v>2816300</v>
+        <v>251156</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>2970</v>
+        <v>297</v>
       </c>
       <c r="I22" s="7">
-        <v>3175183</v>
+        <v>394183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
-        <v>5662</v>
+        <v>592</v>
       </c>
       <c r="N22" s="7">
-        <v>5991483</v>
+        <v>645338</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,49 +4249,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>519</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>553411</v>
+        <v>5006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
-        <v>358</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>359463</v>
+        <v>5986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
-        <v>877</v>
+        <v>10</v>
       </c>
       <c r="N23" s="7">
-        <v>912874</v>
+        <v>10993</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,63 +4300,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256162</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>656331</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2692</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2816300</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2970</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3175183</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5662</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5991483</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>519</v>
+      </c>
+      <c r="D26" s="7">
+        <v>553411</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>358</v>
+      </c>
+      <c r="I26" s="7">
+        <v>359463</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>877</v>
+      </c>
+      <c r="N26" s="7">
+        <v>912874</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3211</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3369711</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3328</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3534646</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6539</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6904357</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4066,8 +4525,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7771739C-3222-4053-9C12-9379CCC02F69}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35964C8-5EFD-44B9-B798-D78A9F9F95AB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4083,7 +4542,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4187,46 +4646,46 @@
         <v>83</v>
       </c>
       <c r="D4" s="7">
-        <v>182905</v>
+        <v>208516</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>133</v>
       </c>
       <c r="I4" s="7">
-        <v>221015</v>
+        <v>203851</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
       </c>
       <c r="N4" s="7">
-        <v>403920</v>
+        <v>412367</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,46 +4697,46 @@
         <v>89</v>
       </c>
       <c r="D5" s="7">
-        <v>194774</v>
+        <v>191471</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>74</v>
       </c>
       <c r="I5" s="7">
-        <v>133942</v>
+        <v>109349</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
       </c>
       <c r="N5" s="7">
-        <v>328716</v>
+        <v>300820</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,7 +4748,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4304,7 +4763,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4319,7 +4778,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4342,46 +4801,46 @@
         <v>216</v>
       </c>
       <c r="D7" s="7">
-        <v>305549</v>
+        <v>307143</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>365</v>
       </c>
       <c r="I7" s="7">
-        <v>380957</v>
+        <v>354358</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>581</v>
       </c>
       <c r="N7" s="7">
-        <v>686506</v>
+        <v>661501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,46 +4852,46 @@
         <v>86</v>
       </c>
       <c r="D8" s="7">
-        <v>122847</v>
+        <v>116404</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
       </c>
       <c r="I8" s="7">
-        <v>117620</v>
+        <v>157146</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>181</v>
       </c>
       <c r="N8" s="7">
-        <v>240467</v>
+        <v>273550</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,7 +4903,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4459,7 +4918,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4474,7 +4933,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4497,46 +4956,46 @@
         <v>436</v>
       </c>
       <c r="D10" s="7">
-        <v>452286</v>
+        <v>441169</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>742</v>
       </c>
       <c r="I10" s="7">
-        <v>506041</v>
+        <v>473953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>1178</v>
       </c>
       <c r="N10" s="7">
-        <v>958326</v>
+        <v>915123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,46 +5007,46 @@
         <v>110</v>
       </c>
       <c r="D11" s="7">
-        <v>104966</v>
+        <v>95169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>104</v>
       </c>
       <c r="I11" s="7">
-        <v>77435</v>
+        <v>68515</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>214</v>
       </c>
       <c r="N11" s="7">
-        <v>182401</v>
+        <v>163683</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,7 +5058,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4614,7 +5073,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4629,7 +5088,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4652,46 +5111,46 @@
         <v>598</v>
       </c>
       <c r="D13" s="7">
-        <v>600970</v>
+        <v>574936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>1062</v>
       </c>
       <c r="I13" s="7">
-        <v>695574</v>
+        <v>667181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>1660</v>
       </c>
       <c r="N13" s="7">
-        <v>1296544</v>
+        <v>1242118</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,46 +5162,46 @@
         <v>67</v>
       </c>
       <c r="D14" s="7">
-        <v>123020</v>
+        <v>312850</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
       </c>
       <c r="I14" s="7">
-        <v>51280</v>
+        <v>45317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
       </c>
       <c r="N14" s="7">
-        <v>174300</v>
+        <v>358167</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +5213,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4769,7 +5228,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4784,7 +5243,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4807,46 +5266,46 @@
         <v>614</v>
       </c>
       <c r="D16" s="7">
-        <v>555016</v>
+        <v>520736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>957</v>
       </c>
       <c r="I16" s="7">
-        <v>566595</v>
+        <v>520675</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>1571</v>
       </c>
       <c r="N16" s="7">
-        <v>1121611</v>
+        <v>1041411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,46 +5317,46 @@
         <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>45141</v>
+        <v>40498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
       </c>
       <c r="I17" s="7">
-        <v>30468</v>
+        <v>27230</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
       </c>
       <c r="N17" s="7">
-        <v>75609</v>
+        <v>67728</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +5368,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4924,7 +5383,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4939,7 +5398,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4959,49 +5418,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1003</v>
+        <v>551</v>
       </c>
       <c r="D19" s="7">
-        <v>679244</v>
+        <v>355651</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>1667</v>
+        <v>811</v>
       </c>
       <c r="I19" s="7">
-        <v>998864</v>
+        <v>600276</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
-        <v>2670</v>
+        <v>1362</v>
       </c>
       <c r="N19" s="7">
-        <v>1678109</v>
+        <v>955927</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,49 +5469,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>18510</v>
+        <v>12514</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I20" s="7">
-        <v>27773</v>
+        <v>8092</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="N20" s="7">
-        <v>46283</v>
+        <v>20606</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,10 +5520,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5076,10 +5535,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5091,10 +5550,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5108,55 +5567,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2950</v>
+        <v>452</v>
       </c>
       <c r="D22" s="7">
-        <v>2775971</v>
+        <v>278386</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
-        <v>4926</v>
+        <v>856</v>
       </c>
       <c r="I22" s="7">
-        <v>3369045</v>
+        <v>410670</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
-        <v>7876</v>
+        <v>1308</v>
       </c>
       <c r="N22" s="7">
-        <v>6145016</v>
+        <v>689057</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,49 +5624,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>609257</v>
+        <v>4373</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
-        <v>437</v>
+        <v>25</v>
       </c>
       <c r="I23" s="7">
-        <v>438519</v>
+        <v>15161</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
-        <v>863</v>
+        <v>31</v>
       </c>
       <c r="N23" s="7">
-        <v>1047776</v>
+        <v>19533</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,63 +5675,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2950</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2686540</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4926</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3230964</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7876</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5917504</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>426</v>
+      </c>
+      <c r="D26" s="7">
+        <v>773277</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>437</v>
+      </c>
+      <c r="I26" s="7">
+        <v>430810</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M26" s="7">
+        <v>863</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1204087</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5363</v>
       </c>
-      <c r="I24" s="7">
-        <v>3807564</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3661774</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8739</v>
       </c>
-      <c r="N24" s="7">
-        <v>7192792</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7121591</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
